--- a/GA05MOAS-GL00#/GA05MOAS-GL00#_D0000#_ingest.xlsx
+++ b/GA05MOAS-GL00#/GA05MOAS-GL00#_D0000#_ingest.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="GA05MOAS-GL00#_D0000#_ingest_v#" sheetId="1" r:id="rId1"/>
@@ -679,6 +684,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -966,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,7 +1009,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
